--- a/CorrectLink/ig/StructureDefinition-FrCurrentMedicationComposition.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrCurrentMedicationComposition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="470">
   <si>
     <t>Property</t>
   </si>
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -331,17 +331,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Composition.implicitRules</t>
   </si>
   <si>
@@ -361,9 +354,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Composition.language</t>
   </si>
   <si>
@@ -441,6 +431,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Composition.extension</t>
   </si>
   <si>
@@ -461,6 +454,229 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Composition.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Version-independent identifier for the Composition</t>
+  </si>
+  <si>
+    <t>A version-independent identifier for the Composition. This identifier stays constant as the composition is changed over time.</t>
+  </si>
+  <si>
+    <t>Similar to ClinicalDocument/setId in CDA. See discussion in resource definition for how these relate.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>Document.id / Document.setId</t>
+  </si>
+  <si>
+    <t>.setId</t>
+  </si>
+  <si>
+    <t>DocumentReference.masterIdentifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Composition.status</t>
+  </si>
+  <si>
+    <t>preliminary | final | amended | entered-in-error</t>
+  </si>
+  <si>
+    <t>The workflow/clinical status of this composition. The status is a marker for the clinical standing of the document.</t>
+  </si>
+  <si>
+    <t>If a composition is marked as withdrawn, the compositions/documents in the series, or data from the composition or document series, should never be displayed to a user without being clearly marked as untrustworthy. The flag "entered-in-error" is why this element is labeled as a modifier of other elements.   
+Some reporting work flows require that the original narrative of a final document never be altered; instead, only new narrative can be added. The composition resource has no explicit status for explicitly noting whether this business rule is in effect. This would be handled by an extension if required.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark interim, amended, or withdrawn compositions or documents.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The workflow/clinical status of the composition.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DocumentReference.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Composition.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Type de liste des Traitements Médicamenteux Courants</t>
+  </si>
+  <si>
+    <t>Le contexte de la liste des Traitements Médicamenteux Courants (sans précision, OMA, sortie, transfert) ; jeu de valeurs extensible</t>
+  </si>
+  <si>
+    <t>Tous les types de liste des Traitements Médicamenteux Courants n'ont pas de code LOINC. Le contexte de la liste des Traitements médicamenteux Courant peut dépasser le périmètre du jeu de valeurs associé, binding *extensible*\.</t>
+  </si>
+  <si>
+    <t>Préciser le contexte de réalisation de la liste des Traitements Médicamenteux Courants</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Type of a Current Medciation.</t>
+  </si>
+  <si>
+    <t>http://interopsante.org/fhir/ValueSet/fr-current-medication-document-type</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>DocumentReference.type</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Composition.category</t>
+  </si>
+  <si>
+    <t>Categorization of Composition</t>
+  </si>
+  <si>
+    <t>A categorization for the type of the composition - helps for indexing and searching. This may be implied by or derived from the code specified in the Composition Type.</t>
+  </si>
+  <si>
+    <t>This is a metadata field from [XDS/MHD](http://wiki.ihe.net/index.php?title=Mobile_access_to_Health_Documents_(MHD)).</t>
+  </si>
+  <si>
+    <t>Helps humans to assess whether the composition is of interest when viewing an index of compositions or documents.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>High-level kind of a clinical document at a macro level.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>DocumenttReference.category</t>
+  </si>
+  <si>
+    <t>Composition.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
+</t>
+  </si>
+  <si>
+    <t>Le patient</t>
+  </si>
+  <si>
+    <t>Le patient auquel se rapporte ce document Traitement Médicamenteux Courant.</t>
+  </si>
+  <si>
+    <t>Un Traitement Médicamenteux Courant se rapporte obligatoirement à un patient, référencé en tant que ressource *Patient* profilée *fr-patient*\.</t>
+  </si>
+  <si>
+    <t>Identifier le patient auquel se rapporte obligatoirement un Traitement Médicamenteux Courant, patient référencé en tant que ressource *Patient* profilée *fr-patient*\.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
+  </si>
+  <si>
+    <t>.recordTarget</t>
+  </si>
+  <si>
+    <t>DocumentReference.subject</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Composition.subject.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Composition.subject.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -471,250 +687,26 @@
     <t>open</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Composition.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Composition.subject.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
 </t>
-  </si>
-  <si>
-    <t>Version-independent identifier for the Composition</t>
-  </si>
-  <si>
-    <t>A version-independent identifier for the Composition. This identifier stays constant as the composition is changed over time.</t>
-  </si>
-  <si>
-    <t>Similar to ClinicalDocument/setId in CDA. See discussion in resource definition for how these relate.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>Document.id / Document.setId</t>
-  </si>
-  <si>
-    <t>.setId</t>
-  </si>
-  <si>
-    <t>DocumentReference.masterIdentifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Composition.status</t>
-  </si>
-  <si>
-    <t>preliminary | final | amended | entered-in-error</t>
-  </si>
-  <si>
-    <t>The workflow/clinical status of this composition. The status is a marker for the clinical standing of the document.</t>
-  </si>
-  <si>
-    <t>If a composition is marked as withdrawn, the compositions/documents in the series, or data from the composition or document series, should never be displayed to a user without being clearly marked as untrustworthy. The flag "entered-in-error" is why this element is labeled as a modifier of other elements.   
-Some reporting work flows require that the original narrative of a final document never be altered; instead, only new narrative can be added. The composition resource has no explicit status for explicitly noting whether this business rule is in effect. This would be handled by an extension if required.</t>
-  </si>
-  <si>
-    <t>Need to be able to mark interim, amended, or withdrawn compositions or documents.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The workflow/clinical status of the composition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
-  </si>
-  <si>
-    <t>DocumentReference.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Composition.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Type de liste des Traitements Médicamenteux Courants</t>
-  </si>
-  <si>
-    <t>Le contexte de la liste des Traitements Médicamenteux Courants (sans précision, OMA, sortie, transfert) ; jeu de valeurs extensible</t>
-  </si>
-  <si>
-    <t>Tous les types de liste des Traitements Médicamenteux Courants n'ont pas de code LOINC. Le contexte de la liste des Traitements médicamenteux Courant peut dépasser le périmètre du jeu de valeurs associé, binding *extensible*\.</t>
-  </si>
-  <si>
-    <t>Préciser le contexte de réalisation de la liste des Traitements Médicamenteux Courants</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Type of a Current Medciation.</t>
-  </si>
-  <si>
-    <t>http://interopsante.org/fhir/ValueSet/fr-current-medication-document-type</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>DocumentReference.type</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Composition.category</t>
-  </si>
-  <si>
-    <t>Categorization of Composition</t>
-  </si>
-  <si>
-    <t>A categorization for the type of the composition - helps for indexing and searching. This may be implied by or derived from the code specified in the Composition Type.</t>
-  </si>
-  <si>
-    <t>This is a metadata field from [XDS/MHD](http://wiki.ihe.net/index.php?title=Mobile_access_to_Health_Documents_(MHD)).</t>
-  </si>
-  <si>
-    <t>Helps humans to assess whether the composition is of interest when viewing an index of compositions or documents.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>High-level kind of a clinical document at a macro level.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>DocumenttReference.category</t>
-  </si>
-  <si>
-    <t>Composition.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
-</t>
-  </si>
-  <si>
-    <t>Le patient</t>
-  </si>
-  <si>
-    <t>Le patient auquel se rapporte ce document Traitement Médicamenteux Courant.</t>
-  </si>
-  <si>
-    <t>Un Traitement Médicamenteux Courant se rapporte obligatoirement à un patient, référencé en tant que ressource *Patient* profilée *fr-patient*\.</t>
-  </si>
-  <si>
-    <t>Identifier le patient auquel se rapporte obligatoirement un Traitement Médicamenteux Courant, patient référencé en tant que ressource *Patient* profilée *fr-patient*\.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
-  </si>
-  <si>
-    <t>.recordTarget</t>
-  </si>
-  <si>
-    <t>DocumentReference.subject</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Composition.subject.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Composition.subject.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Composition.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t>ele-1
-ref-1</t>
   </si>
   <si>
     <t>Composition.subject.type</t>
@@ -791,9 +783,6 @@
     <t>Describes the clinical encounter or type of care this documentation is associated with.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Provides context for the composition and supports searching.</t>
   </si>
   <si>
@@ -985,9 +974,6 @@
     <t>The type of attestation the authenticator offers.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Indicates the level of authority of the attestation.</t>
   </si>
   <si>
@@ -1216,14 +1202,6 @@
     <t>The period of time covered by the documentation. There is no assertion that the documentation is a complete representation for this period, only that it documents events during this time.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>DocumentReference.event.period</t>
   </si>
   <si>
@@ -1258,8 +1236,8 @@
     <t>Fournir la liste des prescriptions médicamenteuses en cours.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cmp-1:A section must contain at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}</t>
+    <t>cmp-1:A section must contain at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}
+cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>./outboundRelationship[typeCode="COMP" and isNormalActRelationship()]/target[moodCode="EVN" and classCode="DOCSECT" and isNormalAct]</t>
@@ -1353,9 +1331,6 @@
     <t>Le Traitement Médicamenteux Courant ne concerne que le patient auquel se rapporte ce document (voir element *subject* de la *Composition*\).</t>
   </si>
   <si>
-    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
-  </si>
-  <si>
     <t>.subject? (CDA did not differentiate between subject and focus)</t>
   </si>
   <si>
@@ -1371,8 +1346,8 @@
     <t>Document profiles may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>ele-1
-cmp-1</t>
+    <t xml:space="preserve">cmp-1
+</t>
   </si>
   <si>
     <t>.text</t>
@@ -1448,8 +1423,8 @@
     <t>Porter les lignes du traitement médicamenteux courant.</t>
   </si>
   <si>
-    <t>ele-1
-cmp-2</t>
+    <t xml:space="preserve">cmp-2
+</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP] or  .participation[typeCode=SBJ]</t>
@@ -1492,10 +1467,6 @@
   </si>
   <si>
     <t>Nested sections are primarily used to help human readers navigate to particular portions of the document.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmp-1
-</t>
   </si>
   <si>
     <t>.component.section</t>
@@ -2324,16 +2295,16 @@
         <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>19</v>
@@ -2347,10 +2318,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2373,16 +2344,16 @@
         <v>81</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2432,7 +2403,7 @@
         <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
@@ -2441,16 +2412,16 @@
         <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>19</v>
@@ -2464,10 +2435,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2490,16 +2461,16 @@
         <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2525,32 +2496,32 @@
         <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
@@ -2558,16 +2529,16 @@
         <v>92</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>19</v>
@@ -2581,14 +2552,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2607,16 +2578,16 @@
         <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2666,7 +2637,7 @@
         <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
@@ -2675,16 +2646,16 @@
         <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>19</v>
@@ -2698,14 +2669,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2724,16 +2695,16 @@
         <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2783,7 +2754,7 @@
         <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2801,7 +2772,7 @@
         <v>19</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>19</v>
@@ -2815,14 +2786,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2841,16 +2812,16 @@
         <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2888,19 +2859,19 @@
         <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2909,16 +2880,16 @@
         <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>19</v>
@@ -2932,14 +2903,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2958,19 +2929,19 @@
         <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>19</v>
@@ -3007,19 +2978,19 @@
         <v>19</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3028,16 +2999,16 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>19</v>
@@ -3051,10 +3022,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3077,16 +3048,16 @@
         <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3136,42 +3107,42 @@
         <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="AL11" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3194,19 +3165,19 @@
         <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>19</v>
@@ -3231,66 +3202,66 @@
         <v>19</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AO12" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>174</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3313,19 +3284,19 @@
         <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O13" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>19</v>
@@ -3350,66 +3321,66 @@
         <v>19</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>188</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3432,19 +3403,19 @@
         <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>19</v>
@@ -3469,13 +3440,13 @@
         <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>19</v>
@@ -3493,7 +3464,7 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3502,33 +3473,33 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3551,19 +3522,19 @@
         <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>19</v>
@@ -3612,7 +3583,7 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3621,33 +3592,33 @@
         <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3670,13 +3641,13 @@
         <v>19</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3727,7 +3698,7 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3745,7 +3716,7 @@
         <v>19</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>19</v>
@@ -3759,14 +3730,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3785,16 +3756,16 @@
         <v>19</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3832,19 +3803,19 @@
         <v>19</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3853,16 +3824,16 @@
         <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>19</v>
@@ -3876,10 +3847,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3902,16 +3873,16 @@
         <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3961,7 +3932,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3970,16 +3941,16 @@
         <v>92</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>19</v>
@@ -3993,10 +3964,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4019,16 +3990,16 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4039,47 +4010,47 @@
         <v>19</v>
       </c>
       <c r="S19" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Z19" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="T19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y19" t="s" s="2">
+      <c r="AA19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4087,16 +4058,16 @@
         <v>92</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>19</v>
@@ -4110,10 +4081,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4136,16 +4107,16 @@
         <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4195,7 +4166,7 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4204,16 +4175,16 @@
         <v>92</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>19</v>
@@ -4227,10 +4198,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4253,16 +4224,16 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4312,7 +4283,7 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4321,16 +4292,16 @@
         <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>19</v>
@@ -4344,10 +4315,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4370,19 +4341,17 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>19</v>
@@ -4431,7 +4400,7 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4440,33 +4409,33 @@
         <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="AK22" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4489,19 +4458,19 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>19</v>
@@ -4550,7 +4519,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>92</v>
@@ -4559,33 +4528,33 @@
         <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK23" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4608,19 +4577,19 @@
         <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -4669,7 +4638,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>92</v>
@@ -4678,33 +4647,33 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="AK24" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>276</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4727,16 +4696,16 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4786,7 +4755,7 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>92</v>
@@ -4795,22 +4764,22 @@
         <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>19</v>
@@ -4818,10 +4787,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4844,16 +4813,16 @@
         <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4879,55 +4848,55 @@
         <v>19</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>19</v>
@@ -4935,10 +4904,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4961,19 +4930,19 @@
         <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -5022,7 +4991,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5031,22 +5000,22 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK27" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>19</v>
@@ -5054,10 +5023,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5080,13 +5049,13 @@
         <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5137,7 +5106,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5155,7 +5124,7 @@
         <v>19</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>19</v>
@@ -5169,14 +5138,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5195,16 +5164,16 @@
         <v>19</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5242,19 +5211,19 @@
         <v>19</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5263,16 +5232,16 @@
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>19</v>
@@ -5286,14 +5255,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5312,19 +5281,19 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>19</v>
@@ -5373,7 +5342,7 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5382,16 +5351,16 @@
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>19</v>
@@ -5405,10 +5374,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5431,19 +5400,17 @@
         <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -5468,13 +5435,13 @@
         <v>19</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>19</v>
@@ -5492,7 +5459,7 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>92</v>
@@ -5501,19 +5468,19 @@
         <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>19</v>
@@ -5524,10 +5491,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5550,17 +5517,17 @@
         <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>19</v>
@@ -5609,28 +5576,28 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>321</v>
-      </c>
       <c r="AM32" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>19</v>
@@ -5641,10 +5608,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5667,19 +5634,17 @@
         <v>19</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>19</v>
@@ -5728,42 +5693,42 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="AM33" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5786,19 +5751,19 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O34" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>19</v>
@@ -5847,7 +5812,7 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5856,22 +5821,22 @@
         <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="AK34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>19</v>
@@ -5879,10 +5844,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5905,16 +5870,16 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5964,7 +5929,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5973,22 +5938,22 @@
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>19</v>
@@ -5996,10 +5961,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6022,13 +5987,13 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6079,7 +6044,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6097,7 +6062,7 @@
         <v>19</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>19</v>
@@ -6111,14 +6076,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6137,16 +6102,16 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6184,19 +6149,19 @@
         <v>19</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6205,16 +6170,16 @@
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>19</v>
@@ -6228,14 +6193,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6254,19 +6219,19 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>19</v>
@@ -6315,7 +6280,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6324,16 +6289,16 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>19</v>
@@ -6347,10 +6312,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6373,16 +6338,16 @@
         <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6408,55 +6373,55 @@
         <v>19</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>19</v>
@@ -6464,10 +6429,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6490,13 +6455,13 @@
         <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6547,31 +6512,31 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="AM40" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>19</v>
@@ -6579,10 +6544,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6605,19 +6570,19 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>19</v>
@@ -6666,7 +6631,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6675,22 +6640,22 @@
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ41" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>19</v>
@@ -6698,10 +6663,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6724,13 +6689,13 @@
         <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6781,7 +6746,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6799,7 +6764,7 @@
         <v>19</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>19</v>
@@ -6813,14 +6778,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6839,16 +6804,16 @@
         <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6886,19 +6851,19 @@
         <v>19</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6907,16 +6872,16 @@
         <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>19</v>
@@ -6930,14 +6895,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6956,19 +6921,19 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>19</v>
@@ -7017,7 +6982,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7026,16 +6991,16 @@
         <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>19</v>
@@ -7049,10 +7014,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7075,16 +7040,16 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7110,13 +7075,13 @@
         <v>19</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>19</v>
@@ -7134,7 +7099,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7143,22 +7108,22 @@
         <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>19</v>
@@ -7166,10 +7131,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7192,17 +7157,15 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -7251,31 +7214,31 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>19</v>
@@ -7283,10 +7246,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7309,17 +7272,15 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>19</v>
@@ -7368,7 +7329,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7377,19 +7338,19 @@
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>19</v>
@@ -7400,10 +7361,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7426,19 +7387,19 @@
         <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>19</v>
@@ -7487,7 +7448,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7496,19 +7457,19 @@
         <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>19</v>
@@ -7519,10 +7480,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7545,13 +7506,13 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7602,7 +7563,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7620,7 +7581,7 @@
         <v>19</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>19</v>
@@ -7634,14 +7595,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7660,16 +7621,16 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7707,19 +7668,19 @@
         <v>19</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7728,16 +7689,16 @@
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>19</v>
@@ -7751,14 +7712,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7777,19 +7738,19 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>19</v>
@@ -7838,7 +7799,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7847,16 +7808,16 @@
         <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>19</v>
@@ -7870,14 +7831,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7896,19 +7857,19 @@
         <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>19</v>
@@ -7918,7 +7879,7 @@
         <v>19</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>19</v>
@@ -7957,7 +7918,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7966,19 +7927,19 @@
         <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>19</v>
@@ -7989,10 +7950,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8015,19 +7976,19 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -8052,13 +8013,13 @@
         <v>19</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>19</v>
@@ -8076,7 +8037,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8085,19 +8046,19 @@
         <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK53" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>19</v>
@@ -8108,10 +8069,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8134,19 +8095,17 @@
         <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>19</v>
@@ -8195,7 +8154,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8204,33 +8163,33 @@
         <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="AK54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>276</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8253,19 +8212,19 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>19</v>
@@ -8314,7 +8273,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8323,19 +8282,19 @@
         <v>92</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ55" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="AK55" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>430</v>
+        <v>19</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>19</v>
@@ -8346,10 +8305,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8372,16 +8331,16 @@
         <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8431,7 +8390,7 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8440,19 +8399,19 @@
         <v>92</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>19</v>
@@ -8463,10 +8422,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8489,19 +8448,19 @@
         <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>19</v>
@@ -8511,7 +8470,7 @@
         <v>19</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>19</v>
@@ -8526,66 +8485,66 @@
         <v>19</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AN57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8608,19 +8567,19 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>19</v>
@@ -8645,13 +8604,13 @@
         <v>19</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>19</v>
@@ -8669,28 +8628,28 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AG58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="AM58" t="s" s="2">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>19</v>
@@ -8701,10 +8660,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8727,19 +8686,19 @@
         <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>19</v>
@@ -8788,7 +8747,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8797,19 +8756,19 @@
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>206</v>
+        <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>19</v>
@@ -8820,10 +8779,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8846,19 +8805,19 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -8883,13 +8842,13 @@
         <v>19</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>19</v>
@@ -8907,28 +8866,28 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AG60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>471</v>
-      </c>
       <c r="AM60" t="s" s="2">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>19</v>
@@ -8939,10 +8898,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8968,13 +8927,13 @@
         <v>19</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9024,7 +8983,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9033,19 +8992,19 @@
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>19</v>
